--- a/数据实验.xlsx
+++ b/数据实验.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewfeng/Desktop/2021-autumn/中国经济专题/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D75096-BBA3-9E48-9D0D-1FCD894CD589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1488FFA4-35DD-8248-B21A-607EFA6A3F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21460" yWindow="5320" windowWidth="27840" windowHeight="16940" activeTab="4" xr2:uid="{B00F5731-665A-2144-AA20-F2728FF09256}"/>
+    <workbookView xWindow="63100" yWindow="1560" windowWidth="29540" windowHeight="18520" activeTab="6" xr2:uid="{B00F5731-665A-2144-AA20-F2728FF09256}"/>
   </bookViews>
   <sheets>
     <sheet name="变量描述性统计值" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="地区异质性分析" sheetId="3" r:id="rId3"/>
     <sheet name="低碳技术创新" sheetId="4" r:id="rId4"/>
     <sheet name="平均房价与低碳之间的关系" sheetId="5" r:id="rId5"/>
+    <sheet name="工业企业数中介效应" sheetId="6" r:id="rId6"/>
+    <sheet name="forest中介效应" sheetId="8" r:id="rId7"/>
+    <sheet name="稳健性" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="77">
   <si>
     <t>time</t>
   </si>
@@ -254,19 +257,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>目的：碳排放交易试点对西部、中部、东部的影响</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>东部地区</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -324,8 +314,108 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>被解释变量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%显著性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%显著性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1%显著性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明中介效应在全国层面上不存在，没有中介效应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在部分中介效应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策无显著影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策对创新有影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策有影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-0.016. 0.092]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.010, 0.123]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-0.198, -0.040]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-0.336, -0.150]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pilot*t2009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pilot*t2010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pilot*t2011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pilot*t2012</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pilot*t2013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pilot*t2014</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pilot*t2015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pilot*t2016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">note: </t>
+      <t>forest</t>
     </r>
     <r>
       <rPr>
@@ -335,7 +425,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>不考虑省份时间趋势的原因，是实验做出来哑变量太多，导致</t>
+      <t>的</t>
     </r>
     <r>
       <rPr>
@@ -344,7 +434,7 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t>R-square</t>
+      <t>pilot*time</t>
     </r>
     <r>
       <rPr>
@@ -354,7 +444,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>为</t>
+      <t>在政策实施年前后</t>
     </r>
     <r>
       <rPr>
@@ -363,7 +453,7 @@
         <rFont val="Consolas"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>t12</t>
     </r>
     <r>
       <rPr>
@@ -373,52 +463,28 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>，模型过于复杂，出现过拟合的现象了</t>
+      <t>保持为正数，直观上是正相关的</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>被解释变量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5%显著性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10%显著性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1%显著性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明中介效应在全国层面上不存在，没有中介效应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在部分中介效应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策无显著影响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策对创新有影响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策有影响</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eps</t>
+    <t>[-0.076, -0.165]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>房价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ln(ind_num)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(forest)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +492,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -467,6 +533,12 @@
       <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -509,7 +581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,6 +589,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -542,6 +617,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,22 +947,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B745964C-79C0-B849-960C-BAFC8A9EB313}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="G1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="9" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:15" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,8 +997,17 @@
       <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -944,8 +1041,18 @@
       <c r="K2" s="2">
         <v>243</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="1">
+        <v>243</v>
+      </c>
+      <c r="M2" s="1">
+        <v>243</v>
+      </c>
+      <c r="N2" s="1">
+        <v>243</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -979,8 +1086,18 @@
       <c r="K3" s="1">
         <v>7.1032469800103897</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="1">
+        <v>6093.0123456790097</v>
+      </c>
+      <c r="M3" s="1">
+        <v>9.0571808030282099</v>
+      </c>
+      <c r="N3" s="1">
+        <v>34.028724279835401</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1013,6 +1130,15 @@
       </c>
       <c r="K4" s="1">
         <v>1.24247177005703</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3928.9891393171001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.07193970535165</v>
+      </c>
+      <c r="N4" s="1">
+        <v>16.353436329125799</v>
       </c>
     </row>
   </sheetData>
@@ -1026,7 +1152,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="176" workbookViewId="0">
-      <selection sqref="A1:E14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1035,14 +1161,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>50</v>
+      <c r="B1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1066,16 +1192,16 @@
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>0.57150000000000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>0.52590000000000003</v>
       </c>
     </row>
@@ -1083,10 +1209,10 @@
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>-0.12920000000000001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>-0.12540000000000001</v>
       </c>
       <c r="D5" s="2">
@@ -1100,10 +1226,10 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>-4.9359000000000002</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>-4.8822000000000001</v>
       </c>
       <c r="D6" s="2">
@@ -1117,10 +1243,10 @@
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>1.0608</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>0.77100000000000002</v>
       </c>
       <c r="D7" s="2">
@@ -1151,10 +1277,10 @@
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>-2.4117999999999999</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>-1.7848999999999999</v>
       </c>
       <c r="D9" s="2">
@@ -1259,9 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370A8B96-3FBD-8C48-BB13-C027C6EBE4DB}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView zoomScale="189" zoomScaleNormal="163" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1270,9 +1394,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1286,13 +1408,13 @@
     <row r="3" spans="1:4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1305,13 +1427,13 @@
       <c r="C4" s="2">
         <v>-2.69E-2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>-3.0099999999999999E-17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>30</v>
@@ -1394,9 +1516,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1408,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C35576B-32F6-FA4E-8236-E8501EB21A7D}">
   <dimension ref="A3:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="144" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1423,19 +1543,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>50</v>
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1467,22 +1587,22 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>6.6699999999999995E-2</v>
       </c>
       <c r="D8" s="2">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>53</v>
+      <c r="F8" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -1568,19 +1688,19 @@
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="3" t="s">
-        <v>48</v>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -1614,19 +1734,19 @@
       <c r="D19" s="2">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="9">
         <v>-2.69E-2</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>-0.22869999999999999</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="10">
         <v>-3.0200000000000003E-17</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="10">
         <v>-9.3399999999999999E-17</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="10">
         <v>1.3900000000000002E-17</v>
       </c>
     </row>
@@ -1635,45 +1755,45 @@
         <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I20" s="2">
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="J21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -1847,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF0AF8A-8007-9B49-BC48-2F2C5348D6B3}">
   <dimension ref="B3:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A4" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1859,14 +1979,14 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>50</v>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1899,16 +2019,16 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>0.53190000000000004</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>0.52590000000000003</v>
       </c>
     </row>
@@ -1916,10 +2036,10 @@
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>-0.11890000000000001</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>-9.8599999999999993E-2</v>
       </c>
       <c r="E9" s="2">
@@ -1933,10 +2053,10 @@
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>-5.149</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>-5.0690999999999997</v>
       </c>
       <c r="E10" s="2">
@@ -1950,10 +2070,10 @@
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>0.98619999999999997</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>0.67159999999999997</v>
       </c>
       <c r="E11" s="2">
@@ -1984,10 +2104,10 @@
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>-2.4117999999999999</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>-1.8917999999999999</v>
       </c>
       <c r="E13" s="2">
@@ -1999,12 +2119,12 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="8">
+        <v>56</v>
+      </c>
+      <c r="C14" s="9">
         <v>-7.2999999999999995E-2</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>-0.23499999999999999</v>
       </c>
       <c r="E14" s="2">
@@ -2097,6 +2217,747 @@
       </c>
       <c r="F19" s="2">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14ECF1D-E261-3A4D-AC1A-F5B72AC52F6D}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="208" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7">
+        <v>-0.24310000000000001</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-0.11899999999999999</v>
+      </c>
+      <c r="E9" s="13">
+        <v>3.78E-2</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>243</v>
+      </c>
+      <c r="D15" s="2">
+        <v>243</v>
+      </c>
+      <c r="E15" s="2">
+        <v>243</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6B5411-9672-C348-BDF3-3E35FA3E2EE3}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="216" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6.13E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15">
+        <v>1E-3</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>243</v>
+      </c>
+      <c r="C10" s="2">
+        <v>243</v>
+      </c>
+      <c r="D10" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979B5696-B06B-3143-B9D7-84A43234E49F}">
+  <dimension ref="B6:F31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-3.44E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.1825</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.1205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>0.1075</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.1205</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.16850000000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>0.1065</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.1195</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-2.53E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-1.18E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>0.106</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-1.24E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5.45E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2">
+        <v>0.106</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.1195</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-1.4200000000000001E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2">
+        <v>0.106</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-4.4600000000000001E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2">
+        <v>0.1065</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-1.61E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2">
+        <v>243</v>
+      </c>
+      <c r="D28" s="2">
+        <v>243</v>
+      </c>
+      <c r="E28" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
